--- a/ChartsWithImpact/Q9.xlsx
+++ b/ChartsWithImpact/Q9.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Fry\Dropbox\ASW Files\Data Visualization\_Current Files\Ch 3 Design - Fry\DATA_CHARTFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Fry\Dropbox\ASW Files\Data Visualization\1 First Pages\Ch 3 Design - Fry\Updated DATA_CHARTfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18C3DE-B073-4342-9CA9-02CAC59BFCB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E994A95F-BF25-439C-91EA-5FB4EFE76E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{ECA7B856-EC14-498E-BFD4-BEC1304DFE8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Enrollment</t>
+    <t>Number of Positive Impressions</t>
   </si>
   <si>
-    <t>Semester (Fall)</t>
+    <t xml:space="preserve">Test Group Number </t>
+  </si>
+  <si>
+    <t>Blue Triangle</t>
+  </si>
+  <si>
+    <t>Orange Square</t>
   </si>
 </sst>
 </file>
@@ -43,6 +49,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -50,6 +57,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,11 +80,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -112,7 +123,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -124,7 +135,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -141,9 +152,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -171,14 +182,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -206,6 +234,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,116 +402,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E04195-460F-4C2E-BB6A-6B4007318F59}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1966</v>
-      </c>
-      <c r="B2">
-        <v>26850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1971</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>34537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1976</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>36335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1981</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>35223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1986</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>34340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1991</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>36228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1996</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>36450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2001</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>38248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10">
-        <v>40025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2011</v>
-      </c>
-      <c r="B11">
-        <v>42716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12">
-        <v>44718</v>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>